--- a/resources/dcf.xlsx
+++ b/resources/dcf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6F8909-579F-B944-A529-AE70843737C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25F8AA7-73BC-2242-94F3-104F590FD832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="21600" windowWidth="21600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1189,8 +1189,8 @@
     <col min="9" max="9" width="15.5" style="84" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="84" customWidth="1"/>
     <col min="11" max="26" width="8.83203125" style="84" customWidth="1"/>
-    <col min="27" max="32" width="14.5" style="84" customWidth="1"/>
-    <col min="33" max="16384" width="14.5" style="84"/>
+    <col min="27" max="34" width="14.5" style="84" customWidth="1"/>
+    <col min="35" max="16384" width="14.5" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">

--- a/resources/dcf.xlsx
+++ b/resources/dcf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25F8AA7-73BC-2242-94F3-104F590FD832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B80D5EA-DF16-9446-A668-47493DC5C26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1189,8 +1189,8 @@
     <col min="9" max="9" width="15.5" style="84" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="84" customWidth="1"/>
     <col min="11" max="26" width="8.83203125" style="84" customWidth="1"/>
-    <col min="27" max="34" width="14.5" style="84" customWidth="1"/>
-    <col min="35" max="16384" width="14.5" style="84"/>
+    <col min="27" max="35" width="14.5" style="84" customWidth="1"/>
+    <col min="36" max="16384" width="14.5" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">

--- a/resources/dcf.xlsx
+++ b/resources/dcf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B80D5EA-DF16-9446-A668-47493DC5C26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B1C3E5-D1DF-C943-8EF3-006AC53115C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="DCF (Timur)" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -866,109 +863,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DCF"/>
-      <sheetName val="Ratios "/>
-      <sheetName val="DCF (Timur)"/>
-      <sheetName val="Income Statement "/>
-      <sheetName val="Balance Sheet"/>
-      <sheetName val="Statement of Cashflow"/>
-      <sheetName val="Supplemental Items (IS)"/>
-      <sheetName val="Supplemental Items (BS)"/>
-      <sheetName val="Supplemental Items (CF)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="7">
-          <cell r="B7">
-            <v>100.16</v>
-          </cell>
-          <cell r="C7">
-            <v>156.36000000000001</v>
-          </cell>
-          <cell r="D7">
-            <v>206.11</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>42.36</v>
-          </cell>
-          <cell r="C19">
-            <v>74.150000000000006</v>
-          </cell>
-          <cell r="D19">
-            <v>94.220000000000013</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34">
-            <v>5.205247566652562E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>22.4</v>
-          </cell>
-          <cell r="C42">
-            <v>61.1</v>
-          </cell>
-          <cell r="D42">
-            <v>75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="16">
-          <cell r="B16">
-            <v>77.8</v>
-          </cell>
-          <cell r="C16">
-            <v>213.2</v>
-          </cell>
-          <cell r="D16">
-            <v>289.60000000000002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>29.4</v>
-          </cell>
-          <cell r="C36">
-            <v>32.5</v>
-          </cell>
-          <cell r="D36">
-            <v>35</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="B6">
-            <v>0.2</v>
-          </cell>
-          <cell r="C6">
-            <v>0.3</v>
-          </cell>
-          <cell r="D6">
-            <v>0.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1173,7 +1067,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1291,35 +1185,35 @@
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:J3" si="1">C32</f>
-        <v>40.755057130765977</v>
+        <v>40.6</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>71.290308929327139</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="1"/>
-        <v>90.215615742699981</v>
+        <v>89.9</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>376.59045603880236</v>
+        <v>376.25714285714281</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="1"/>
-        <v>387.82966971996643</v>
+        <v>387.48635714285712</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="1"/>
-        <v>399.41190981156547</v>
+        <v>399.05829785714286</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="1"/>
-        <v>411.34688210591247</v>
+        <v>410.98266179285719</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="1"/>
-        <v>423.6446420690898</v>
+        <v>423.2694951466429</v>
       </c>
       <c r="K3" s="82"/>
       <c r="L3" s="82"/>
@@ -1397,7 +1291,7 @@
       <c r="I5" s="90"/>
       <c r="J5" s="91">
         <f>((J3/(1+C8)))/(E42-C8)</f>
-        <v>3477.4614833805877</v>
+        <v>3474.3821125025647</v>
       </c>
       <c r="K5" s="82"/>
       <c r="L5" s="82"/>
@@ -1426,23 +1320,23 @@
       <c r="E6" s="8"/>
       <c r="F6" s="5">
         <f>(F3)*(1+$E$42)^F1</f>
-        <v>442.46743625107916</v>
+        <v>442.07581658416336</v>
       </c>
       <c r="G6" s="5">
         <f>(G3)*(1+$E$42)^G1</f>
-        <v>535.38357008124717</v>
+        <v>534.90964060256829</v>
       </c>
       <c r="H6" s="5">
         <f>(H3)*(1+$E$42)^H1</f>
-        <v>647.82398633996058</v>
+        <v>647.25044734349046</v>
       </c>
       <c r="I6" s="5">
         <f>(I3)*(1+$E$42)^I1</f>
-        <v>783.89199191569571</v>
+        <v>783.19790767896734</v>
       </c>
       <c r="J6" s="11">
         <f>(J5+J3)*(1+E42)^J1</f>
-        <v>8734.6958582689331</v>
+        <v>8726.9610873209622</v>
       </c>
       <c r="K6" s="82"/>
       <c r="L6" s="82"/>
@@ -1533,7 +1427,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(F6:J6)</f>
-        <v>11144.262842856915</v>
+        <v>11134.394899530151</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1630,7 +1524,7 @@
       </c>
       <c r="C12" s="18">
         <f>C9/C10</f>
-        <v>265.33959149659324</v>
+        <v>265.10464046500357</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="92"/>
@@ -1663,7 +1557,7 @@
       </c>
       <c r="C13" s="21">
         <f>(C12-C11)/C11</f>
-        <v>2.9193440398315103</v>
+        <v>2.9158735666913378</v>
       </c>
       <c r="D13" s="94"/>
       <c r="E13" s="94"/>
@@ -1869,36 +1763,33 @@
         <v>24</v>
       </c>
       <c r="C19" s="4">
-        <f>'[1]Income Statement '!B7</f>
-        <v>100.16</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4">
-        <f>'[1]Income Statement '!C7</f>
-        <v>156.36000000000001</v>
+        <v>156</v>
       </c>
       <c r="E19" s="4">
-        <f>'[1]Income Statement '!D7</f>
-        <v>206.11</v>
+        <v>206</v>
       </c>
       <c r="F19" s="5">
         <f>E19*1.02</f>
-        <v>210.23220000000001</v>
+        <v>210.12</v>
       </c>
       <c r="G19" s="5">
         <f>F19*1.02</f>
-        <v>214.43684400000001</v>
+        <v>214.32240000000002</v>
       </c>
       <c r="H19" s="5">
         <f>G19*1.02</f>
-        <v>218.72558088000002</v>
+        <v>218.60884800000002</v>
       </c>
       <c r="I19" s="5">
         <f>H19*1.02</f>
-        <v>223.10009249760003</v>
+        <v>222.98102496000001</v>
       </c>
       <c r="J19" s="11">
         <f>I19*1.02</f>
-        <v>227.56209434755203</v>
+        <v>227.44064545920003</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="82"/>
@@ -1927,31 +1818,31 @@
       </c>
       <c r="D20" s="8">
         <f>D19/C19-1</f>
-        <v>0.56110223642172552</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E20" s="8">
         <f>E19/D19-1</f>
-        <v>0.31817600409311853</v>
+        <v>0.32051282051282048</v>
       </c>
       <c r="F20" s="36">
         <f>AVERAGE(C20:E20)</f>
-        <v>0.31875941350494802</v>
+        <v>0.31917094017094017</v>
       </c>
       <c r="G20" s="36">
         <f>AVERAGE(C20:F20)</f>
-        <v>0.31875941350494802</v>
+        <v>0.31917094017094017</v>
       </c>
       <c r="H20" s="36">
         <f>AVERAGE(C20:G20)</f>
-        <v>0.31875941350494802</v>
+        <v>0.31917094017094017</v>
       </c>
       <c r="I20" s="36">
         <f>AVERAGE(C20:H20)</f>
-        <v>0.31875941350494802</v>
+        <v>0.31917094017094017</v>
       </c>
       <c r="J20" s="37">
         <f>AVERAGE(C20:I20)</f>
-        <v>0.31875941350494802</v>
+        <v>0.31917094017094022</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="82"/>
@@ -1976,36 +1867,33 @@
         <v>26</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Income Statement '!B42</f>
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
-        <f>'[1]Income Statement '!C42</f>
-        <v>61.1</v>
+        <v>61</v>
       </c>
       <c r="E21" s="4">
-        <f>'[1]Income Statement '!D42</f>
         <v>75</v>
       </c>
       <c r="F21" s="5">
         <f>F19*E22</f>
-        <v>76.499999999999986</v>
+        <v>76.5</v>
       </c>
       <c r="G21" s="5">
         <f>G19*F22</f>
-        <v>69.927171295658326</v>
+        <v>69.662160615384622</v>
       </c>
       <c r="H21" s="5">
         <f>H19*G22</f>
-        <v>78.795531597239105</v>
+        <v>78.709222916923096</v>
       </c>
       <c r="I21" s="5">
         <f>I19*H22</f>
-        <v>78.102027748395614</v>
+        <v>77.980777093169237</v>
       </c>
       <c r="J21" s="11">
         <f>J19*I22</f>
-        <v>78.616737657818021</v>
+        <v>78.451836766710173</v>
       </c>
       <c r="K21" s="82"/>
       <c r="L21" s="82"/>
@@ -2031,35 +1919,35 @@
       </c>
       <c r="C22" s="8">
         <f>C21/C19</f>
-        <v>0.22364217252396165</v>
+        <v>0.22</v>
       </c>
       <c r="D22" s="8">
         <f>D21/D19</f>
-        <v>0.3907649015093374</v>
+        <v>0.39102564102564102</v>
       </c>
       <c r="E22" s="8">
         <f>E21/E19</f>
-        <v>0.36388336325263204</v>
+        <v>0.36407766990291263</v>
       </c>
       <c r="F22" s="36">
         <f>AVERAGE(C22:E22)</f>
-        <v>0.32609681242864369</v>
+        <v>0.32503443697618456</v>
       </c>
       <c r="G22" s="36">
         <f>AVERAGE(D22:F22)</f>
-        <v>0.36024835906353769</v>
+        <v>0.36004591596824609</v>
       </c>
       <c r="H22" s="36">
         <f>AVERAGE(E22:G22)</f>
-        <v>0.35007617824827114</v>
+        <v>0.34971934094911444</v>
       </c>
       <c r="I22" s="36">
         <f>AVERAGE(F22:H22)</f>
-        <v>0.34547378324681749</v>
+        <v>0.34493323129784836</v>
       </c>
       <c r="J22" s="37">
         <f>AVERAGE(G22:I22)</f>
-        <v>0.35193277351954211</v>
+        <v>0.35156616273840297</v>
       </c>
       <c r="K22" s="82"/>
       <c r="L22" s="82"/>
@@ -2088,23 +1976,23 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5">
         <f>F31*F21</f>
-        <v>-7.6499999999999986</v>
+        <v>-7.65</v>
       </c>
       <c r="G23" s="5">
         <f>G31*G21</f>
-        <v>-6.9927171295658326</v>
+        <v>-6.9662160615384625</v>
       </c>
       <c r="H23" s="5">
         <f>H31*H21</f>
-        <v>-7.879553159723911</v>
+        <v>-7.8709222916923096</v>
       </c>
       <c r="I23" s="5">
         <f>I31*I21</f>
-        <v>-7.8102027748395617</v>
+        <v>-7.7980777093169245</v>
       </c>
       <c r="J23" s="11">
         <f>J31*J21</f>
-        <v>-7.8616737657818021</v>
+        <v>-7.8451836766710175</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="82"/>
@@ -2129,36 +2017,33 @@
         <v>29</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Income Statement '!B19*(1-'[1]Income Statement '!$G$34)</f>
-        <v>40.155057130765975</v>
+        <v>40</v>
       </c>
       <c r="D24" s="4">
-        <f>'[1]Income Statement '!C19*(1-'[1]Income Statement '!$G$34)</f>
-        <v>70.290308929327139</v>
+        <v>70</v>
       </c>
       <c r="E24" s="4">
-        <f>'[1]Income Statement '!D19*(1-'[1]Income Statement '!$G$34)</f>
-        <v>89.315615742699975</v>
+        <v>89</v>
       </c>
       <c r="F24" s="5">
         <f>E24*(1+E25)</f>
-        <v>113.49045603880231</v>
+        <v>113.15714285714284</v>
       </c>
       <c r="G24" s="5">
         <f>F24*(1+F25)</f>
-        <v>116.89516971996638</v>
+        <v>116.55185714285713</v>
       </c>
       <c r="H24" s="5">
         <f>G24*(1+G25)</f>
-        <v>120.40202481156537</v>
+        <v>120.04841285714285</v>
       </c>
       <c r="I24" s="5">
         <f>H24*(1+H25)</f>
-        <v>124.01408555591233</v>
+        <v>123.64986524285713</v>
       </c>
       <c r="J24" s="11">
         <f>I24*(1+I25)</f>
-        <v>127.7345081225897</v>
+        <v>127.35936120014284</v>
       </c>
       <c r="K24" s="82"/>
       <c r="L24" s="82"/>
@@ -2183,11 +2068,11 @@
       <c r="C25" s="4"/>
       <c r="D25" s="8">
         <f>D24/C24-1</f>
-        <v>0.75047214353163394</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="8">
         <f>E24/D24-1</f>
-        <v>0.27066756574511119</v>
+        <v>0.27142857142857135</v>
       </c>
       <c r="F25" s="36">
         <v>0.03</v>
@@ -2231,15 +2116,12 @@
         <v>30</v>
       </c>
       <c r="C26" s="4">
-        <f>+'[1]Statement of Cashflow'!B6</f>
         <v>0.2</v>
       </c>
       <c r="D26" s="4">
-        <f>+'[1]Statement of Cashflow'!C6</f>
         <v>0.3</v>
       </c>
       <c r="E26" s="4">
-        <f>+'[1]Statement of Cashflow'!D6</f>
         <v>0.4</v>
       </c>
       <c r="F26" s="5">
@@ -2329,36 +2211,33 @@
         <v>31</v>
       </c>
       <c r="C28" s="4">
-        <f>'[1]Balance Sheet'!B16-'[1]Balance Sheet'!B36</f>
         <v>48.4</v>
       </c>
       <c r="D28" s="4">
-        <f>'[1]Balance Sheet'!C16-'[1]Balance Sheet'!C36</f>
         <v>180.7</v>
       </c>
       <c r="E28" s="4">
-        <f>'[1]Balance Sheet'!D16-'[1]Balance Sheet'!D36</f>
-        <v>254.60000000000002</v>
+        <v>254.6</v>
       </c>
       <c r="F28" s="5">
         <f>E28*(1+F29)</f>
-        <v>262.23800000000006</v>
+        <v>262.238</v>
       </c>
       <c r="G28" s="5">
         <f>F28*(1+G29)</f>
-        <v>270.10514000000006</v>
+        <v>270.10514000000001</v>
       </c>
       <c r="H28" s="5">
         <f>G28*(1+H29)</f>
-        <v>278.20829420000007</v>
+        <v>278.20829420000001</v>
       </c>
       <c r="I28" s="5">
         <f>H28*(1+I29)</f>
-        <v>286.55454302600009</v>
+        <v>286.55454302600003</v>
       </c>
       <c r="J28" s="11">
         <f>I28*(1+J29)</f>
-        <v>295.15117931678009</v>
+        <v>295.15117931678003</v>
       </c>
       <c r="K28" s="82"/>
       <c r="L28" s="82"/>
@@ -2387,7 +2266,7 @@
       </c>
       <c r="E29" s="8">
         <f>E28/D28-1</f>
-        <v>0.40896513558384084</v>
+        <v>0.40896513558384062</v>
       </c>
       <c r="F29" s="36">
         <v>0.03</v>
@@ -2523,35 +2402,35 @@
       </c>
       <c r="C32" s="98">
         <f>C24+C26+C30</f>
-        <v>40.755057130765977</v>
+        <v>40.6</v>
       </c>
       <c r="D32" s="98">
         <f>D24+D26+D30</f>
-        <v>71.290308929327139</v>
+        <v>71</v>
       </c>
       <c r="E32" s="98">
         <f>E24+E26+E30</f>
-        <v>90.215615742699981</v>
+        <v>89.9</v>
       </c>
       <c r="F32" s="99">
         <f>F24+F26+F28+F30</f>
-        <v>376.59045603880236</v>
+        <v>376.25714285714281</v>
       </c>
       <c r="G32" s="99">
         <f>G24+G26+G28+G30</f>
-        <v>387.82966971996643</v>
+        <v>387.48635714285712</v>
       </c>
       <c r="H32" s="99">
         <f>H24+H26+H28+H30</f>
-        <v>399.41190981156547</v>
+        <v>399.05829785714286</v>
       </c>
       <c r="I32" s="99">
         <f>I24+I26+I28+I30</f>
-        <v>411.34688210591247</v>
+        <v>410.98266179285719</v>
       </c>
       <c r="J32" s="39">
         <f>J24+J26+J28+J30</f>
-        <v>423.6446420690898</v>
+        <v>423.2694951466429</v>
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="82"/>
